--- a/biology/Zoologie/Brachyderes/Brachyderes.xlsx
+++ b/biology/Zoologie/Brachyderes/Brachyderes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachyderes est un genre de coléoptères de la famille des Curculionidae et de la sous-famille des Entiminae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pattes arrière sont caractérisées par leur extrémité croisée et sont recouvertes de soies. Le museau (rostre) est court et large, pas plus long que la largeur de la base. Les élytres sont un peu plus larges que le pronotum, dans leur partie la plus large, et sont étroites et longues.
 Les antennes sont longues.
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (30 août 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (30 août 2014) :
 Brachyderes albicans
 Brachyderes albidus
 Brachyderes alboguttatus
@@ -619,7 +635,7 @@
 Brachyderes testipes
 Brachyderes virens
 Brachyderes virgo
-Selon NCBI  (30 août 2014)[2] :
+Selon NCBI  (30 août 2014) :
 Brachyderes grisescens
 Brachyderes incanus
 Brachyderes pubescens
